--- a/Historical data (povcalnet - dbw).xlsx
+++ b/Historical data (povcalnet - dbw).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\02.personal\wb463998\Historical data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AC0227-DC05-4B8B-A80B-80BB52E4AA04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172DD012-7DE9-4EE2-8CD2-049CA5B60D73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8F4CACB2-DFCE-4D88-AEBA-32730FD802DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8F4CACB2-DFCE-4D88-AEBA-32730FD802DE}"/>
   </bookViews>
   <sheets>
     <sheet name="merge(Povcalnet-DBW-CHN-ARE)" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11537" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11577" uniqueCount="348">
   <si>
     <t>countrycode</t>
   </si>
@@ -1331,6 +1331,66 @@
   <si>
     <t>STATUS</t>
   </si>
+  <si>
+    <t>P:\Kihoon\Handover\Data\LAC\DS\SEDLAC-Total</t>
+  </si>
+  <si>
+    <t>P:\01.PovcalNet\01.Vintage_control\CHL\CHL_1987_CASEN</t>
+  </si>
+  <si>
+    <t>CASEN</t>
+  </si>
+  <si>
+    <t>ENH</t>
+  </si>
+  <si>
+    <t>P:\01.PovcalNet\01.Vintage_control\COL\COL_1992_ENH</t>
+  </si>
+  <si>
+    <t>P:\01.PovcalNet\01.Vintage_control\COL\COL_1996_ENH</t>
+  </si>
+  <si>
+    <t>P:\01.PovcalNet\01.Vintage_control\COL\COL_1999_ENH</t>
+  </si>
+  <si>
+    <t>P:\01.PovcalNet\01.Vintage_control\COL\COL_2000_ENH</t>
+  </si>
+  <si>
+    <t>EHM</t>
+  </si>
+  <si>
+    <t>P:\Kihoon\Handover\Data\Harmonized\EAP</t>
+  </si>
+  <si>
+    <t>P:\01.PovcalNet\01.Vintage_control\LAO\LAO_1992_LECS</t>
+  </si>
+  <si>
+    <t>P:\Kihoon\Handover\Data\Harmonized_Old\EAP</t>
+  </si>
+  <si>
+    <t>P:\Kihoon\Handover\Data\Harmonized_Old\LAC</t>
+  </si>
+  <si>
+    <t>P:\01.PovcalNet\01.Vintage_control\JAM\JAM_1990_JSLC</t>
+  </si>
+  <si>
+    <t>P:\Kihoon\Handover\Data\SurveyDataAll</t>
+  </si>
+  <si>
+    <t>P:\01.PovcalNet\01.Vintage_control\MDA\MDA_2005_HBS</t>
+  </si>
+  <si>
+    <t>P:\01.PovcalNet\01.Vintage_control\LKA\LKA_1990_HIES</t>
+  </si>
+  <si>
+    <t>P:\01.PovcalNet\01.Vintage_control\LKA\LKA_1995_SES</t>
+  </si>
+  <si>
+    <t>P:\01.PovcalNet\01.Vintage_control\PAK\PAK_1990_HIES</t>
+  </si>
+  <si>
+    <t>P:\Documentation\Surveys\PER\PER_N1985X\Data</t>
+  </si>
 </sst>
 </file>
 
@@ -1477,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1527,6 +1587,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -52231,21 +52294,22 @@
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A757704-7ECE-4D79-9C67-B49C5E5F770D}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:P285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O203" sqref="J203:O203"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:A284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52313,7 +52377,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
         <v>187</v>
@@ -52340,7 +52404,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="18" t="s">
         <v>187</v>
@@ -52367,7 +52431,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="18" t="s">
         <v>14</v>
@@ -52394,7 +52458,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="18" t="s">
         <v>14</v>
@@ -52421,7 +52485,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="18" t="s">
         <v>14</v>
@@ -52448,7 +52512,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="18" t="s">
         <v>14</v>
@@ -52475,7 +52539,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="18" t="s">
         <v>14</v>
@@ -52502,7 +52566,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="18" t="s">
         <v>14</v>
@@ -52529,7 +52593,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="18" t="s">
         <v>14</v>
@@ -52556,7 +52620,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="18" t="s">
         <v>9</v>
@@ -52633,7 +52697,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -52661,8 +52725,17 @@
       <c r="I13" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <v>0.40830860000000002</v>
+      </c>
+      <c r="L13">
+        <v>3.6855999999999998E-3</v>
+      </c>
+      <c r="M13">
+        <v>796.89670000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -52690,8 +52763,17 @@
       <c r="I14" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>0.42787560000000002</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>863.01120000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -52719,8 +52801,17 @@
       <c r="I15" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <v>0.45276889999999997</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>788.86659999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -52747,6 +52838,15 @@
       </c>
       <c r="I16" t="s">
         <v>189</v>
+      </c>
+      <c r="K16">
+        <v>0.44418619999999998</v>
+      </c>
+      <c r="L16">
+        <v>0.17904980000000001</v>
+      </c>
+      <c r="M16">
+        <v>162.43889999999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -52849,7 +52949,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -52943,90 +53043,90 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="23">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="22">
         <v>0</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="21">
         <v>1983</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="21">
         <v>1983.5</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="21">
         <v>1983.5</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="24" t="s">
+      <c r="G21" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="23">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22">
         <v>0</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="21">
         <v>1985</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <v>1985.5</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="21">
         <v>1985.5</v>
       </c>
-      <c r="G22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="24" t="s">
+      <c r="G22" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="23">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22">
         <v>0</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="21">
         <v>1988</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <v>1988.5</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="21">
         <v>1988.5</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="24" t="s">
+      <c r="G23" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="21" t="s">
         <v>189</v>
       </c>
     </row>
@@ -53130,7 +53230,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -53159,7 +53259,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -53188,7 +53288,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -53217,7 +53317,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -53246,7 +53346,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -53275,7 +53375,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -54104,7 +54204,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -54133,7 +54233,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -54162,7 +54262,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -54254,35 +54354,56 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="A52" s="23">
+        <v>2</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="24">
         <v>1987</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="24">
         <v>1987</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="24">
         <v>1987</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="G52" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="24" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J52" t="s">
+        <v>328</v>
+      </c>
+      <c r="K52">
+        <v>0.56210159999999998</v>
+      </c>
+      <c r="L52">
+        <v>0.1167473</v>
+      </c>
+      <c r="M52">
+        <v>299.16520000000003</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O52" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="P52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -54311,7 +54432,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -54340,7 +54461,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -54369,7 +54490,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -54399,122 +54520,206 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="A57" s="23">
+        <v>2</v>
+      </c>
+      <c r="B57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="24">
         <v>1992</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="24">
         <v>1992</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="24">
         <v>1992</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="G57" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="24" t="s">
         <v>189</v>
       </c>
+      <c r="J57" t="s">
+        <v>328</v>
+      </c>
+      <c r="K57">
+        <v>0.51453669999999996</v>
+      </c>
+      <c r="L57">
+        <v>8.8905399999999996E-2</v>
+      </c>
+      <c r="M57">
+        <v>292.72199999999998</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O57" t="s">
+        <v>331</v>
+      </c>
+      <c r="P57" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>0</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" s="23">
+        <v>2</v>
+      </c>
+      <c r="B58" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="24">
         <v>1996</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="24">
         <v>1996</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="24">
         <v>1996</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="G58" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="24" t="s">
         <v>189</v>
       </c>
+      <c r="J58" t="s">
+        <v>328</v>
+      </c>
+      <c r="K58">
+        <v>0.56933040000000001</v>
+      </c>
+      <c r="L58">
+        <v>0.16549510000000001</v>
+      </c>
+      <c r="M58">
+        <v>265.67700000000002</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O58" t="s">
+        <v>331</v>
+      </c>
+      <c r="P58" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>0</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" s="23">
+        <v>2</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="24">
         <v>1999</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="24">
         <v>1999</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="24">
         <v>1999</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="G59" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="24" t="s">
         <v>189</v>
       </c>
+      <c r="J59" t="s">
+        <v>328</v>
+      </c>
+      <c r="K59">
+        <v>0.58739560000000002</v>
+      </c>
+      <c r="L59">
+        <v>0.20072019999999999</v>
+      </c>
+      <c r="M59">
+        <v>254.0771</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O59" t="s">
+        <v>331</v>
+      </c>
+      <c r="P59" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>0</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" s="23">
+        <v>2</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="24">
         <v>2000</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="24">
         <v>2000</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="24">
         <v>2000</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="G60" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="24" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J60" t="s">
+        <v>328</v>
+      </c>
+      <c r="K60">
+        <v>0.58682889999999999</v>
+      </c>
+      <c r="L60">
+        <v>0.16369320000000001</v>
+      </c>
+      <c r="M60">
+        <v>283.39210000000003</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O60" t="s">
+        <v>331</v>
+      </c>
+      <c r="P60" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -54542,8 +54747,17 @@
       <c r="I61" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K61">
+        <v>0.47494760000000003</v>
+      </c>
+      <c r="L61">
+        <v>0.24695929999999999</v>
+      </c>
+      <c r="M61">
+        <v>166.38669999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -54571,8 +54785,17 @@
       <c r="I62" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K62">
+        <v>0.3442405</v>
+      </c>
+      <c r="L62">
+        <v>0.13183600000000001</v>
+      </c>
+      <c r="M62">
+        <v>172.32810000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -54600,8 +54823,17 @@
       <c r="I63" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K63">
+        <v>0.46688239999999998</v>
+      </c>
+      <c r="L63">
+        <v>0.1197223</v>
+      </c>
+      <c r="M63">
+        <v>269.30610000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -54680,7 +54912,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -54709,7 +54941,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -54738,7 +54970,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -54767,7 +54999,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -54796,7 +55028,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -54825,7 +55057,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -54863,7 +55095,7 @@
         <v>139.93870000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>0</v>
       </c>
@@ -54910,7 +55142,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>0</v>
       </c>
@@ -54957,7 +55189,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -54986,7 +55218,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -55015,7 +55247,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -55044,7 +55276,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -55123,7 +55355,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -55152,7 +55384,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -55181,7 +55413,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -55210,7 +55442,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -55239,7 +55471,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
         <v>0</v>
       </c>
@@ -55283,7 +55515,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -55310,6 +55542,12 @@
       </c>
       <c r="I84" t="s">
         <v>189</v>
+      </c>
+      <c r="L84">
+        <v>0.42964089999999999</v>
+      </c>
+      <c r="M84">
+        <v>118.191</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
@@ -55362,7 +55600,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -55391,7 +55629,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -55420,7 +55658,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -55449,7 +55687,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -55478,7 +55716,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -55507,7 +55745,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -55536,7 +55774,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -55565,7 +55803,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -55594,7 +55832,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -55623,7 +55861,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -55652,7 +55890,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -55681,7 +55919,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -55760,7 +55998,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>0</v>
       </c>
@@ -55789,7 +56027,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -55818,7 +56056,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -55847,7 +56085,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -55876,7 +56114,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -55905,7 +56143,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -55934,7 +56172,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -55963,7 +56201,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -55992,7 +56230,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -56021,7 +56259,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -56050,7 +56288,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -56079,7 +56317,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -56109,35 +56347,35 @@
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A111" s="4">
-        <v>1</v>
-      </c>
-      <c r="B111" s="13" t="s">
+      <c r="A111" s="23">
+        <v>2</v>
+      </c>
+      <c r="B111" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D111" s="24">
         <v>1993</v>
       </c>
-      <c r="E111" s="13">
+      <c r="E111" s="24">
         <v>1993</v>
       </c>
-      <c r="F111" s="13">
+      <c r="F111" s="24">
         <v>1993</v>
       </c>
-      <c r="G111" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H111" s="4" t="s">
+      <c r="G111" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I111" s="13" t="s">
+      <c r="I111" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J111" t="s">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="K111" s="10">
         <v>0.26001760000000002</v>
@@ -56159,35 +56397,35 @@
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A112" s="4">
-        <v>1</v>
-      </c>
-      <c r="B112" s="13" t="s">
+      <c r="A112" s="23">
+        <v>2</v>
+      </c>
+      <c r="B112" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D112" s="13">
+      <c r="D112" s="24">
         <v>1993</v>
       </c>
-      <c r="E112" s="13">
+      <c r="E112" s="24">
         <v>1993</v>
       </c>
-      <c r="F112" s="13">
+      <c r="F112" s="24">
         <v>1993</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H112" s="4" t="s">
+      <c r="G112" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I112" s="13" t="s">
+      <c r="I112" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J112" t="s">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="K112" s="10">
         <v>0.35354029999999997</v>
@@ -56208,7 +56446,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>0</v>
       </c>
@@ -56355,7 +56593,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -56502,7 +56740,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>0</v>
       </c>
@@ -56649,7 +56887,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -56696,7 +56934,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -56725,7 +56963,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -56754,7 +56992,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>0</v>
       </c>
@@ -56783,7 +57021,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -56812,7 +57050,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>0</v>
       </c>
@@ -56841,7 +57079,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>0</v>
       </c>
@@ -56870,7 +57108,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -56899,7 +57137,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -56928,7 +57166,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>0</v>
       </c>
@@ -56957,7 +57195,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -56986,7 +57224,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -57015,7 +57253,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -57044,7 +57282,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -57073,7 +57311,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -57115,35 +57353,35 @@
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A137" s="8">
-        <v>0</v>
-      </c>
-      <c r="B137" s="9" t="s">
+      <c r="A137" s="23">
+        <v>2</v>
+      </c>
+      <c r="B137" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D137" s="9">
+      <c r="D137" s="24">
         <v>1990</v>
       </c>
-      <c r="E137" s="9">
+      <c r="E137" s="24">
         <v>1990</v>
       </c>
-      <c r="F137" s="9">
+      <c r="F137" s="24">
         <v>1990</v>
       </c>
-      <c r="G137" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H137" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I137" s="9" t="s">
+      <c r="G137" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J137" t="s">
-        <v>197</v>
+        <v>340</v>
       </c>
       <c r="K137" s="21">
         <v>0.41114079999999997</v>
@@ -57154,14 +57392,17 @@
       <c r="M137">
         <v>231.9905</v>
       </c>
-      <c r="N137" s="9" t="s">
-        <v>213</v>
+      <c r="N137" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="O137" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P137" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -57402,7 +57643,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>0</v>
       </c>
@@ -57431,7 +57672,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -57460,7 +57701,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -57539,7 +57780,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>0</v>
       </c>
@@ -57618,7 +57859,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>0</v>
       </c>
@@ -57698,35 +57939,35 @@
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A151" s="8">
-        <v>0</v>
-      </c>
-      <c r="B151" s="9" t="s">
+      <c r="A151" s="23">
+        <v>2</v>
+      </c>
+      <c r="B151" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D151" s="9">
+      <c r="D151" s="24">
         <v>1992</v>
       </c>
-      <c r="E151" s="9">
+      <c r="E151" s="24">
         <v>1992.2</v>
       </c>
-      <c r="F151" s="9">
+      <c r="F151" s="24">
         <v>1992.2</v>
       </c>
-      <c r="G151" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H151" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I151" s="9" t="s">
+      <c r="G151" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I151" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J151" t="s">
-        <v>197</v>
+        <v>337</v>
       </c>
       <c r="K151" s="11">
         <v>0.34309859999999998</v>
@@ -57737,40 +57978,46 @@
       <c r="M151">
         <v>95.039119999999997</v>
       </c>
-      <c r="N151" s="9" t="s">
-        <v>213</v>
+      <c r="N151" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O151" t="s">
+        <v>224</v>
+      </c>
+      <c r="P151" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A152" s="4">
-        <v>1</v>
-      </c>
-      <c r="B152" s="13" t="s">
+      <c r="A152" s="23">
+        <v>2</v>
+      </c>
+      <c r="B152" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D152" s="13">
+      <c r="D152" s="24">
         <v>1997</v>
       </c>
-      <c r="E152" s="13">
+      <c r="E152" s="24">
         <v>1997.2</v>
       </c>
-      <c r="F152" s="13">
+      <c r="F152" s="24">
         <v>1997.2</v>
       </c>
-      <c r="G152" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I152" s="13" t="s">
+      <c r="G152" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J152" t="s">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="K152">
         <v>0.34895209999999999</v>
@@ -57791,7 +58038,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>0</v>
       </c>
@@ -57820,7 +58067,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>0</v>
       </c>
@@ -57850,35 +58097,35 @@
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A155" s="8">
-        <v>0</v>
-      </c>
-      <c r="B155" s="9" t="s">
+      <c r="A155" s="23">
+        <v>2</v>
+      </c>
+      <c r="B155" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D155" s="9">
+      <c r="D155" s="24">
         <v>1990</v>
       </c>
-      <c r="E155" s="9">
+      <c r="E155" s="24">
         <v>1990.5</v>
       </c>
-      <c r="F155" s="9">
+      <c r="F155" s="24">
         <v>1990.5</v>
       </c>
-      <c r="G155" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H155" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I155" s="9" t="s">
+      <c r="G155" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I155" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J155" t="s">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="K155">
         <v>0.32447579999999998</v>
@@ -57889,40 +58136,46 @@
       <c r="M155">
         <v>132.5582</v>
       </c>
-      <c r="N155" s="9" t="s">
-        <v>213</v>
+      <c r="N155" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O155" t="s">
+        <v>285</v>
+      </c>
+      <c r="P155" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A156" s="8">
-        <v>0</v>
-      </c>
-      <c r="B156" s="9" t="s">
+      <c r="A156" s="23">
+        <v>2</v>
+      </c>
+      <c r="B156" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C156" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D156" s="9">
+      <c r="D156" s="24">
         <v>1995</v>
       </c>
-      <c r="E156" s="9">
+      <c r="E156" s="24">
         <v>1995.5</v>
       </c>
-      <c r="F156" s="9">
+      <c r="F156" s="24">
         <v>1995.5</v>
       </c>
-      <c r="G156" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H156" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I156" s="9" t="s">
+      <c r="G156" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H156" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I156" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J156" t="s">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="K156" s="11">
         <v>0.35399700000000001</v>
@@ -57933,11 +58186,17 @@
       <c r="M156">
         <v>144.16829999999999</v>
       </c>
-      <c r="N156" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N156" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O156" t="s">
+        <v>304</v>
+      </c>
+      <c r="P156" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -58016,7 +58275,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -58045,7 +58304,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>0</v>
       </c>
@@ -58074,7 +58333,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -58103,7 +58362,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -58132,7 +58391,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>0</v>
       </c>
@@ -58261,7 +58520,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>0</v>
       </c>
@@ -58290,7 +58549,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -58319,7 +58578,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>0</v>
       </c>
@@ -58399,35 +58658,35 @@
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A170" s="8">
-        <v>0</v>
-      </c>
-      <c r="B170" s="9" t="s">
+      <c r="A170" s="23">
+        <v>2</v>
+      </c>
+      <c r="B170" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D170" s="9">
+      <c r="D170" s="24">
         <v>2005</v>
       </c>
-      <c r="E170" s="9">
+      <c r="E170" s="24">
         <v>2005</v>
       </c>
-      <c r="F170" s="9">
+      <c r="F170" s="24">
         <v>2005</v>
       </c>
-      <c r="G170" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H170" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I170" s="9" t="s">
+      <c r="G170" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H170" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I170" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J170" t="s">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="K170">
         <v>0.3627823</v>
@@ -58438,14 +58697,17 @@
       <c r="M170">
         <v>142.59469999999999</v>
       </c>
-      <c r="N170" s="9" t="s">
-        <v>213</v>
+      <c r="N170" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="O170" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P170" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -58574,7 +58836,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>0</v>
       </c>
@@ -58653,7 +58915,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>0</v>
       </c>
@@ -58682,7 +58944,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>0</v>
       </c>
@@ -58761,7 +59023,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="8">
         <v>0</v>
       </c>
@@ -58805,7 +59067,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>0</v>
       </c>
@@ -58834,7 +59096,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>0</v>
       </c>
@@ -58863,7 +59125,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>0</v>
       </c>
@@ -58892,7 +59154,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>0</v>
       </c>
@@ -58921,7 +59183,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>0</v>
       </c>
@@ -58950,7 +59212,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>0</v>
       </c>
@@ -58979,7 +59241,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -59008,7 +59270,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>0</v>
       </c>
@@ -59037,7 +59299,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
         <v>0</v>
       </c>
@@ -59131,7 +59393,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -59160,7 +59422,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>0</v>
       </c>
@@ -59239,7 +59501,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>0</v>
       </c>
@@ -59368,7 +59630,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>0</v>
       </c>
@@ -59448,35 +59710,35 @@
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A198" s="8">
-        <v>0</v>
-      </c>
-      <c r="B198" s="9" t="s">
+      <c r="A198" s="23">
+        <v>2</v>
+      </c>
+      <c r="B198" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C198" s="9" t="s">
+      <c r="C198" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D198" s="9">
+      <c r="D198" s="24">
         <v>1990</v>
       </c>
-      <c r="E198" s="9">
+      <c r="E198" s="24">
         <v>1990.5</v>
       </c>
-      <c r="F198" s="9">
+      <c r="F198" s="24">
         <v>1990.5</v>
       </c>
-      <c r="G198" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H198" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I198" s="9" t="s">
+      <c r="G198" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H198" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I198" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J198" t="s">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="K198">
         <v>0.3324857</v>
@@ -59487,11 +59749,14 @@
       <c r="M198">
         <v>63.231310000000001</v>
       </c>
-      <c r="N198" s="9" t="s">
-        <v>213</v>
+      <c r="N198" s="21" t="s">
+        <v>199</v>
       </c>
       <c r="O198" t="s">
         <v>285</v>
+      </c>
+      <c r="P198" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.35">
@@ -59594,7 +59859,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -59622,8 +59887,17 @@
       <c r="I201" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K201">
+        <v>0.48740139999999998</v>
+      </c>
+      <c r="L201">
+        <v>8.0787399999999995E-2</v>
+      </c>
+      <c r="M201">
+        <v>328.5736</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>0</v>
       </c>
@@ -59651,37 +59925,46 @@
       <c r="I202" t="s">
         <v>189</v>
       </c>
+      <c r="K202" s="11">
+        <v>0.58907710000000002</v>
+      </c>
+      <c r="L202">
+        <v>0.2372562</v>
+      </c>
+      <c r="M202">
+        <v>289.29419999999999</v>
+      </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A203" s="4">
-        <v>1</v>
-      </c>
-      <c r="B203" s="13" t="s">
+      <c r="A203" s="23">
+        <v>2</v>
+      </c>
+      <c r="B203" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C203" s="13" t="s">
+      <c r="C203" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D203" s="13">
+      <c r="D203" s="24">
         <v>1985</v>
       </c>
-      <c r="E203" s="13">
+      <c r="E203" s="24">
         <v>1985.5</v>
       </c>
-      <c r="F203" s="13">
+      <c r="F203" s="24">
         <v>1985.5</v>
       </c>
-      <c r="G203" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I203" s="13" t="s">
+      <c r="G203" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H203" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I203" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J203" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="K203">
         <v>0.45634980000000003</v>
@@ -59752,7 +60035,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>0</v>
       </c>
@@ -59831,7 +60114,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -59860,7 +60143,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="8">
         <v>0</v>
       </c>
@@ -59954,7 +60237,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>0</v>
       </c>
@@ -59983,7 +60266,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -60012,7 +60295,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>0</v>
       </c>
@@ -60041,7 +60324,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -60070,7 +60353,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -60099,7 +60382,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>0</v>
       </c>
@@ -60128,7 +60411,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -60157,7 +60440,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -60236,7 +60519,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>0</v>
       </c>
@@ -60265,7 +60548,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -60294,7 +60577,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -60323,7 +60606,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -60352,7 +60635,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>0</v>
       </c>
@@ -60381,7 +60664,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>0</v>
       </c>
@@ -60410,7 +60693,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>0</v>
       </c>
@@ -60437,6 +60720,15 @@
       </c>
       <c r="I225" t="s">
         <v>189</v>
+      </c>
+      <c r="K225">
+        <v>0.31965359999999998</v>
+      </c>
+      <c r="L225">
+        <v>1.6616999999999999E-3</v>
+      </c>
+      <c r="M225">
+        <v>395.00110000000001</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.35">
@@ -60489,7 +60781,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>0</v>
       </c>
@@ -60518,7 +60810,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>0</v>
       </c>
@@ -60547,7 +60839,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -60676,7 +60968,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -60805,7 +61097,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -60834,7 +61126,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>0</v>
       </c>
@@ -61163,7 +61455,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -61192,7 +61484,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>0</v>
       </c>
@@ -61221,7 +61513,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -61250,7 +61542,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -61279,7 +61571,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>0</v>
       </c>
@@ -61308,7 +61600,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>0</v>
       </c>
@@ -61337,7 +61629,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -61366,7 +61658,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -61395,7 +61687,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>0</v>
       </c>
@@ -61424,7 +61716,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>0</v>
       </c>
@@ -61453,7 +61745,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="8">
         <v>0</v>
       </c>
@@ -61497,7 +61789,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="8">
         <v>0</v>
       </c>
@@ -61691,7 +61983,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -61721,35 +62013,35 @@
       </c>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A259" s="4">
-        <v>1</v>
-      </c>
-      <c r="B259" s="13" t="s">
+      <c r="A259" s="23">
+        <v>2</v>
+      </c>
+      <c r="B259" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C259" s="13" t="s">
+      <c r="C259" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D259" s="13">
+      <c r="D259" s="24">
         <v>1996</v>
       </c>
-      <c r="E259" s="13">
+      <c r="E259" s="24">
         <v>1996</v>
       </c>
-      <c r="F259" s="13">
+      <c r="F259" s="24">
         <v>1996</v>
       </c>
-      <c r="G259" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H259" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I259" s="13" t="s">
+      <c r="G259" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H259" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I259" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J259" t="s">
-        <v>197</v>
+        <v>342</v>
       </c>
       <c r="K259">
         <v>0.35155950000000002</v>
@@ -61770,7 +62062,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -61849,7 +62141,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -61878,7 +62170,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="22">
         <v>0</v>
       </c>
@@ -61908,35 +62200,35 @@
       </c>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A264" s="8">
-        <v>0</v>
-      </c>
-      <c r="B264" s="9" t="s">
+      <c r="A264" s="23">
+        <v>2</v>
+      </c>
+      <c r="B264" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C264" s="9" t="s">
+      <c r="C264" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D264" s="9">
+      <c r="D264" s="24">
         <v>1989</v>
       </c>
-      <c r="E264" s="9">
+      <c r="E264" s="24">
         <v>1989</v>
       </c>
-      <c r="F264" s="9">
+      <c r="F264" s="24">
         <v>1989</v>
       </c>
-      <c r="G264" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H264" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I264" s="9" t="s">
+      <c r="G264" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H264" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I264" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J264" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="K264">
         <v>0.45295049999999998</v>
@@ -61947,40 +62239,43 @@
       <c r="M264">
         <v>361.06220000000002</v>
       </c>
-      <c r="N264" s="9" t="s">
-        <v>213</v>
+      <c r="N264" t="s">
+        <v>199</v>
+      </c>
+      <c r="O264" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A265" s="8">
-        <v>0</v>
-      </c>
-      <c r="B265" s="9" t="s">
+      <c r="A265" s="23">
+        <v>2</v>
+      </c>
+      <c r="B265" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C265" s="9" t="s">
+      <c r="C265" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D265" s="9">
+      <c r="D265" s="24">
         <v>1992</v>
       </c>
-      <c r="E265" s="9">
+      <c r="E265" s="24">
         <v>1992</v>
       </c>
-      <c r="F265" s="9">
+      <c r="F265" s="24">
         <v>1992</v>
       </c>
-      <c r="G265" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H265" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I265" s="9" t="s">
+      <c r="G265" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H265" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I265" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J265" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="K265">
         <v>0.42506240000000001</v>
@@ -61991,40 +62286,43 @@
       <c r="M265">
         <v>340.24810000000002</v>
       </c>
-      <c r="N265" s="9" t="s">
-        <v>213</v>
+      <c r="N265" t="s">
+        <v>199</v>
+      </c>
+      <c r="O265" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A266" s="8">
-        <v>0</v>
-      </c>
-      <c r="B266" s="9" t="s">
+      <c r="A266" s="23">
+        <v>2</v>
+      </c>
+      <c r="B266" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C266" s="9" t="s">
+      <c r="C266" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D266" s="9">
+      <c r="D266" s="24">
         <v>1995</v>
       </c>
-      <c r="E266" s="9">
+      <c r="E266" s="24">
         <v>1995</v>
       </c>
-      <c r="F266" s="9">
+      <c r="F266" s="24">
         <v>1995</v>
       </c>
-      <c r="G266" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H266" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I266" s="9" t="s">
+      <c r="G266" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H266" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I266" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J266" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="K266">
         <v>0.47824939999999999</v>
@@ -62035,40 +62333,43 @@
       <c r="M266">
         <v>271.35559999999998</v>
       </c>
-      <c r="N266" s="9" t="s">
-        <v>213</v>
+      <c r="N266" t="s">
+        <v>199</v>
+      </c>
+      <c r="O266" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A267" s="8">
-        <v>0</v>
-      </c>
-      <c r="B267" s="9" t="s">
+      <c r="A267" s="23">
+        <v>2</v>
+      </c>
+      <c r="B267" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C267" s="9" t="s">
+      <c r="C267" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D267" s="9">
+      <c r="D267" s="24">
         <v>1998</v>
       </c>
-      <c r="E267" s="9">
+      <c r="E267" s="24">
         <v>1998</v>
       </c>
-      <c r="F267" s="9">
+      <c r="F267" s="24">
         <v>1998</v>
       </c>
-      <c r="G267" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H267" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I267" s="9" t="s">
+      <c r="G267" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H267" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I267" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J267" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="K267">
         <v>0.49803829999999999</v>
@@ -62079,40 +62380,43 @@
       <c r="M267">
         <v>278.1438</v>
       </c>
-      <c r="N267" s="9" t="s">
-        <v>213</v>
+      <c r="N267" t="s">
+        <v>199</v>
+      </c>
+      <c r="O267" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A268" s="8">
-        <v>0</v>
-      </c>
-      <c r="B268" s="9" t="s">
+      <c r="A268" s="23">
+        <v>2</v>
+      </c>
+      <c r="B268" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C268" s="9" t="s">
+      <c r="C268" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D268" s="9">
+      <c r="D268" s="24">
         <v>1999</v>
       </c>
-      <c r="E268" s="9">
+      <c r="E268" s="24">
         <v>1999</v>
       </c>
-      <c r="F268" s="9">
+      <c r="F268" s="24">
         <v>1999</v>
       </c>
-      <c r="G268" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H268" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I268" s="9" t="s">
+      <c r="G268" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H268" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I268" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J268" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="K268">
         <v>0.48324400000000001</v>
@@ -62123,40 +62427,43 @@
       <c r="M268">
         <v>258.45890000000003</v>
       </c>
-      <c r="N268" s="9" t="s">
-        <v>213</v>
+      <c r="N268" t="s">
+        <v>199</v>
+      </c>
+      <c r="O268" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A269" s="8">
-        <v>0</v>
-      </c>
-      <c r="B269" s="9" t="s">
+      <c r="A269" s="23">
+        <v>2</v>
+      </c>
+      <c r="B269" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C269" s="9" t="s">
+      <c r="C269" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D269" s="9">
+      <c r="D269" s="24">
         <v>2001</v>
       </c>
-      <c r="E269" s="9">
+      <c r="E269" s="24">
         <v>2001</v>
       </c>
-      <c r="F269" s="9">
+      <c r="F269" s="24">
         <v>2001</v>
       </c>
-      <c r="G269" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H269" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I269" s="9" t="s">
+      <c r="G269" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H269" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I269" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J269" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="K269">
         <v>0.48224220000000001</v>
@@ -62167,40 +62474,43 @@
       <c r="M269">
         <v>269.55860000000001</v>
       </c>
-      <c r="N269" s="9" t="s">
-        <v>213</v>
+      <c r="N269" t="s">
+        <v>199</v>
+      </c>
+      <c r="O269" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A270" s="8">
-        <v>0</v>
-      </c>
-      <c r="B270" s="9" t="s">
+      <c r="A270" s="23">
+        <v>2</v>
+      </c>
+      <c r="B270" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C270" s="9" t="s">
+      <c r="C270" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D270" s="9">
+      <c r="D270" s="24">
         <v>2002</v>
       </c>
-      <c r="E270" s="9">
+      <c r="E270" s="24">
         <v>2002</v>
       </c>
-      <c r="F270" s="9">
+      <c r="F270" s="24">
         <v>2002</v>
       </c>
-      <c r="G270" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H270" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I270" s="9" t="s">
+      <c r="G270" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H270" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I270" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J270" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="K270">
         <v>0.50557810000000003</v>
@@ -62211,40 +62521,43 @@
       <c r="M270">
         <v>218.63589999999999</v>
       </c>
-      <c r="N270" s="9" t="s">
-        <v>213</v>
+      <c r="N270" t="s">
+        <v>199</v>
+      </c>
+      <c r="O270" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A271" s="8">
-        <v>0</v>
-      </c>
-      <c r="B271" s="9" t="s">
+      <c r="A271" s="23">
+        <v>2</v>
+      </c>
+      <c r="B271" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C271" s="9" t="s">
+      <c r="C271" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D271" s="9">
+      <c r="D271" s="24">
         <v>2003</v>
       </c>
-      <c r="E271" s="9">
+      <c r="E271" s="24">
         <v>2003</v>
       </c>
-      <c r="F271" s="9">
+      <c r="F271" s="24">
         <v>2003</v>
       </c>
-      <c r="G271" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H271" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I271" s="9" t="s">
+      <c r="G271" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H271" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I271" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J271" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="K271">
         <v>0.50372779999999995</v>
@@ -62255,40 +62568,43 @@
       <c r="M271">
         <v>181.6764</v>
       </c>
-      <c r="N271" s="9" t="s">
-        <v>213</v>
+      <c r="N271" t="s">
+        <v>199</v>
+      </c>
+      <c r="O271" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A272" s="8">
-        <v>0</v>
-      </c>
-      <c r="B272" s="9" t="s">
+      <c r="A272" s="23">
+        <v>2</v>
+      </c>
+      <c r="B272" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C272" s="9" t="s">
+      <c r="C272" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D272" s="9">
+      <c r="D272" s="24">
         <v>2004</v>
       </c>
-      <c r="E272" s="9">
+      <c r="E272" s="24">
         <v>2004</v>
       </c>
-      <c r="F272" s="9">
+      <c r="F272" s="24">
         <v>2004</v>
       </c>
-      <c r="G272" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H272" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I272" s="9" t="s">
+      <c r="G272" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H272" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I272" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J272" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="K272">
         <v>0.49819160000000001</v>
@@ -62299,40 +62615,43 @@
       <c r="M272">
         <v>203.65969999999999</v>
       </c>
-      <c r="N272" s="9" t="s">
-        <v>213</v>
+      <c r="N272" t="s">
+        <v>199</v>
+      </c>
+      <c r="O272" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A273" s="8">
-        <v>0</v>
-      </c>
-      <c r="B273" s="9" t="s">
+      <c r="A273" s="23">
+        <v>2</v>
+      </c>
+      <c r="B273" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C273" s="9" t="s">
+      <c r="C273" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D273" s="9">
+      <c r="D273" s="24">
         <v>2005</v>
       </c>
-      <c r="E273" s="9">
+      <c r="E273" s="24">
         <v>2005</v>
       </c>
-      <c r="F273" s="9">
+      <c r="F273" s="24">
         <v>2005</v>
       </c>
-      <c r="G273" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H273" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I273" s="9" t="s">
+      <c r="G273" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H273" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I273" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J273" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="K273">
         <v>0.5236497</v>
@@ -62343,40 +62662,43 @@
       <c r="M273">
         <v>251.35400000000001</v>
       </c>
-      <c r="N273" s="9" t="s">
-        <v>213</v>
+      <c r="N273" t="s">
+        <v>199</v>
+      </c>
+      <c r="O273" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A274" s="8">
-        <v>0</v>
-      </c>
-      <c r="B274" s="9" t="s">
+      <c r="A274" s="23">
+        <v>2</v>
+      </c>
+      <c r="B274" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C274" s="9" t="s">
+      <c r="C274" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D274" s="9">
+      <c r="D274" s="24">
         <v>2006</v>
       </c>
-      <c r="E274" s="9">
+      <c r="E274" s="24">
         <v>2006</v>
       </c>
-      <c r="F274" s="9">
+      <c r="F274" s="24">
         <v>2006</v>
       </c>
-      <c r="G274" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H274" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I274" s="9" t="s">
+      <c r="G274" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H274" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I274" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J274" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="K274">
         <v>0.46941310000000003</v>
@@ -62387,8 +62709,11 @@
       <c r="M274">
         <v>314.80590000000001</v>
       </c>
-      <c r="N274" s="9" t="s">
-        <v>213</v>
+      <c r="N274" t="s">
+        <v>199</v>
+      </c>
+      <c r="O274" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.35">
@@ -62541,7 +62866,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>0</v>
       </c>
@@ -62570,7 +62895,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -62599,7 +62924,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -62728,7 +63053,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -62807,7 +63132,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>0</v>
       </c>
@@ -62837,7 +63162,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P285" xr:uid="{28D6E845-894F-4A4E-81CA-0658F4A78AF7}"/>
+  <autoFilter ref="A1:P285" xr:uid="{28D6E845-894F-4A4E-81CA-0658F4A78AF7}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Historical data (povcalnet - dbw).xlsx
+++ b/Historical data (povcalnet - dbw).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\02.personal\wb463998\Historical data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172DD012-7DE9-4EE2-8CD2-049CA5B60D73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76F88CE-FA6D-46E3-AB95-197AAF87A8BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8F4CACB2-DFCE-4D88-AEBA-32730FD802DE}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{8F4CACB2-DFCE-4D88-AEBA-32730FD802DE}"/>
   </bookViews>
   <sheets>
     <sheet name="merge(Povcalnet-DBW-CHN-ARE)" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11577" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11577" uniqueCount="350">
   <si>
     <t>countrycode</t>
   </si>
@@ -1391,6 +1391,12 @@
   <si>
     <t>P:\Documentation\Surveys\PER\PER_N1985X\Data</t>
   </si>
+  <si>
+    <t>P:\Documentation\Surveys\PHL\PHL_N1997X\Data</t>
+  </si>
+  <si>
+    <t>P:\Documentation\Surveys\UGA\UGA_N1999X\Data</t>
+  </si>
 </sst>
 </file>
 
@@ -52306,10 +52312,10 @@
   <dimension ref="A1:P285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E270" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:A284"/>
+      <selection pane="bottomRight" activeCell="J275" sqref="J275:J276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60188,35 +60194,35 @@
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A209" s="4">
-        <v>1</v>
-      </c>
-      <c r="B209" s="13" t="s">
+      <c r="A209" s="23">
+        <v>2</v>
+      </c>
+      <c r="B209" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C209" s="13" t="s">
+      <c r="C209" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="D209" s="13">
+      <c r="D209" s="24">
         <v>1997</v>
       </c>
-      <c r="E209" s="13">
+      <c r="E209" s="24">
         <v>1997</v>
       </c>
-      <c r="F209" s="13">
+      <c r="F209" s="24">
         <v>1997</v>
       </c>
-      <c r="G209" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H209" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I209" s="13" t="s">
+      <c r="G209" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H209" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I209" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J209" t="s">
-        <v>197</v>
+        <v>348</v>
       </c>
       <c r="K209">
         <v>0.45962209999999998</v>
@@ -61834,35 +61840,35 @@
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A255" s="4">
-        <v>1</v>
-      </c>
-      <c r="B255" s="13" t="s">
+      <c r="A255" s="23">
+        <v>2</v>
+      </c>
+      <c r="B255" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C255" s="13" t="s">
+      <c r="C255" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D255" s="13">
+      <c r="D255" s="24">
         <v>1999</v>
       </c>
-      <c r="E255" s="13">
+      <c r="E255" s="24">
         <v>1999.55</v>
       </c>
-      <c r="F255" s="13">
+      <c r="F255" s="24">
         <v>1999.55</v>
       </c>
-      <c r="G255" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H255" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I255" s="13" t="s">
+      <c r="G255" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H255" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I255" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J255" t="s">
-        <v>197</v>
+        <v>349</v>
       </c>
       <c r="K255">
         <v>0.43003710000000001</v>
@@ -62717,35 +62723,35 @@
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A275" s="4">
-        <v>1</v>
-      </c>
-      <c r="B275" s="13" t="s">
+      <c r="A275" s="23">
+        <v>2</v>
+      </c>
+      <c r="B275" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C275" s="13" t="s">
+      <c r="C275" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D275" s="13">
+      <c r="D275" s="24">
         <v>1992</v>
       </c>
-      <c r="E275" s="13">
+      <c r="E275" s="24">
         <v>1992.71</v>
       </c>
-      <c r="F275" s="13">
+      <c r="F275" s="24">
         <v>1992.71</v>
       </c>
-      <c r="G275" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H275" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I275" s="13" t="s">
+      <c r="G275" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H275" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I275" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J275" t="s">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="K275">
         <v>0.35654400000000003</v>
@@ -62767,35 +62773,35 @@
       </c>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A276" s="4">
-        <v>1</v>
-      </c>
-      <c r="B276" s="13" t="s">
+      <c r="A276" s="23">
+        <v>2</v>
+      </c>
+      <c r="B276" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C276" s="13" t="s">
+      <c r="C276" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D276" s="13">
+      <c r="D276" s="24">
         <v>1998</v>
       </c>
-      <c r="E276" s="13">
+      <c r="E276" s="24">
         <v>1998.79</v>
       </c>
-      <c r="F276" s="13">
+      <c r="F276" s="24">
         <v>1998.79</v>
       </c>
-      <c r="G276" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H276" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I276" s="13" t="s">
+      <c r="G276" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H276" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I276" s="24" t="s">
         <v>189</v>
       </c>
       <c r="J276" t="s">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="K276">
         <v>0.35442259999999998</v>
@@ -63178,6 +63184,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B671BDE85FD5945B514E90A54FCE214" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa9b5ed8b7944182e6ac8c88ce69fa4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="58aa284a-e2d1-41fb-b0b6-86d741dfd183" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ff45f6a3dbbbd6f8e357e8141eae5f3" ns3:_="">
     <xsd:import namespace="58aa284a-e2d1-41fb-b0b6-86d741dfd183"/>
@@ -63361,22 +63382,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E03594DA-0DE1-4A5C-A02D-BEBD944AAD82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="58aa284a-e2d1-41fb-b0b6-86d741dfd183"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686641F8-0E2B-45BC-BE17-36FC0D4BA5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7381289F-BB57-47E2-83DD-80496F9415B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -63392,28 +63422,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686641F8-0E2B-45BC-BE17-36FC0D4BA5EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E03594DA-0DE1-4A5C-A02D-BEBD944AAD82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="58aa284a-e2d1-41fb-b0b6-86d741dfd183"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>